--- a/NformTester/NformTester/Keywordscripts/600.10.20.120_ManualMaitenanceAndScheduledMaintenance.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.20.120_ManualMaitenanceAndScheduledMaintenance.xlsx
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8205" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8213" uniqueCount="900">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3915,114 +3915,114 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Test Device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"3"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">;Clear up the alarms. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotContains</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>;The goal of this test is to verify the interaction when Manuel maintenance overlap with Schedual maintenance.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_GXT_Ip_Port$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_Trap$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Sys_Incident$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_SingleAuto_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_SinAuto_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Script Info</t>
+  </si>
+  <si>
+    <t>Script Data</t>
+  </si>
+  <si>
+    <t>Test Object</t>
+  </si>
+  <si>
+    <t>C:\\Nform\\bin\\NformViewer.exe</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Create Date</t>
+  </si>
+  <si>
+    <t>Update Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Running Range</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">;Verify that:The incident of this alarm will be ‘Manual’ after this device turn to manual maintenance mode. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">;Repeat above steps,Verify the overlap between Manual maintenance and Scheduled maintenance. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test Device</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"3"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">;Clear up the alarms. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pause</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NotContains</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>;The goal of this test is to verify the interaction when Manuel maintenance overlap with Schedual maintenance.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$Trap_GXT_Trap$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$Sys_Incident$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_SingleAuto_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_SinAuto_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Script Info</t>
-  </si>
-  <si>
-    <t>Script Data</t>
-  </si>
-  <si>
-    <t>Test Object</t>
-  </si>
-  <si>
-    <t>C:\\Nform\\bin\\NformViewer.exe</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>Create Date</t>
-  </si>
-  <si>
-    <t>Update Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Running Range</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>T</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4247,7 +4247,35 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4552,10 +4580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N149"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4572,10 +4600,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>815</v>
@@ -4616,10 +4644,10 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="2" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4640,10 +4668,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4674,10 +4702,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -4704,7 +4732,7 @@
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="2" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B5" s="8">
         <v>41743</v>
@@ -4728,16 +4756,16 @@
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="2" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -4755,7 +4783,7 @@
         <v>823</v>
       </c>
       <c r="B7" s="3">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
@@ -4776,7 +4804,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="4">
@@ -4796,10 +4824,10 @@
         <v>847</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>848</v>
@@ -4814,14 +4842,14 @@
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -4880,7 +4908,7 @@
         <v>27</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
@@ -4985,10 +5013,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -5101,7 +5129,7 @@
         <v>56</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -5237,7 +5265,7 @@
         <v>4</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -5325,7 +5353,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -5376,7 +5404,7 @@
         <v>27</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -5465,10 +5493,10 @@
         <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F34" s="4">
         <v>2</v>
@@ -5513,13 +5541,13 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="9" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="I36" s="9">
         <v>1</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -5619,7 +5647,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>19</v>
@@ -5847,7 +5875,7 @@
         <v>56</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -5957,7 +5985,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -6008,7 +6036,7 @@
         <v>27</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
@@ -6097,10 +6125,10 @@
         <v>60</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F61" s="4">
         <v>2</v>
@@ -6145,13 +6173,13 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="9" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="I63" s="9">
         <v>1</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
@@ -6185,7 +6213,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>869</v>
+        <v>898</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="4"/>
@@ -6343,7 +6371,7 @@
         <v>866</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
@@ -6401,7 +6429,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>870</v>
+        <v>899</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -6479,7 +6507,7 @@
         <v>56</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
@@ -6579,7 +6607,7 @@
         <v>4</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
@@ -6667,7 +6695,7 @@
         <v>84</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -6718,7 +6746,7 @@
         <v>27</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H87" s="9"/>
       <c r="I87" s="9"/>
@@ -6807,10 +6835,10 @@
         <v>90</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F91" s="4">
         <v>2</v>
@@ -6837,13 +6865,13 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="9" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="I92" s="9">
         <v>1</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
@@ -7017,7 +7045,7 @@
         <v>866</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>871</v>
+        <v>881</v>
       </c>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
@@ -7075,7 +7103,7 @@
         <v>101</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -7126,7 +7154,7 @@
         <v>27</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="H104" s="9"/>
       <c r="I104" s="9"/>
@@ -7215,10 +7243,10 @@
         <v>107</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F108" s="4">
         <v>2</v>
@@ -7245,13 +7273,13 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="9" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="I109" s="9">
         <v>1</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
@@ -7285,7 +7313,7 @@
         <v>110</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>19</v>
@@ -7309,7 +7337,7 @@
         <v>111</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>19</v>
@@ -7422,10 +7450,10 @@
         <v>865</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="J116" s="4" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
@@ -7543,7 +7571,7 @@
         <v>56</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
@@ -7611,12 +7639,12 @@
         <v>641</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>17</v>
+        <v>644</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H124" s="4"/>
+      <c r="H124" s="9"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
       <c r="K124" s="4"/>
@@ -7632,15 +7660,15 @@
         <v>838</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>100</v>
+        <v>643</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H125" s="4"/>
+      <c r="H125" s="9"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
       <c r="K125" s="4"/>
@@ -7648,16 +7676,22 @@
       <c r="M125" s="4"/>
       <c r="N125" s="14"/>
     </row>
-    <row r="126" spans="3:14" ht="15">
+    <row r="126" spans="3:14">
       <c r="C126" s="4">
         <v>125</v>
       </c>
-      <c r="D126" s="5" t="s">
-        <v>873</v>
-      </c>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
+      <c r="D126" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
@@ -7674,10 +7708,10 @@
         <v>838</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>19</v>
+        <v>632</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="G127" s="4" t="s">
         <v>2</v>
@@ -7690,24 +7724,18 @@
       <c r="M127" s="4"/>
       <c r="N127" s="14"/>
     </row>
-    <row r="128" spans="3:14">
+    <row r="128" spans="3:14" ht="15">
       <c r="C128" s="4">
         <v>127</v>
       </c>
-      <c r="D128" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="E128" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G128" s="4" t="s">
-        <v>874</v>
-      </c>
-      <c r="H128" s="9"/>
-      <c r="I128" s="9"/>
+      <c r="D128" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
@@ -7725,13 +7753,13 @@
         <v>19</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
       <c r="J129" s="4"/>
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
@@ -7749,15 +7777,13 @@
         <v>19</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>114</v>
+        <v>27</v>
       </c>
       <c r="G130" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H130" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="I130" s="4"/>
+        <v>872</v>
+      </c>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
       <c r="J130" s="4"/>
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
@@ -7775,13 +7801,13 @@
         <v>19</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H131" s="9"/>
-      <c r="I131" s="4"/>
+      <c r="I131" s="9"/>
       <c r="J131" s="4"/>
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
@@ -7793,16 +7819,20 @@
         <v>131</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>875</v>
+        <v>838</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>876</v>
-      </c>
-      <c r="F132" s="4">
-        <v>2</v>
-      </c>
-      <c r="G132" s="4"/>
-      <c r="H132" s="9"/>
+        <v>19</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>851</v>
+      </c>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
       <c r="K132" s="4"/>
@@ -7815,22 +7845,20 @@
         <v>132</v>
       </c>
       <c r="D133" s="6" t="s">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>814</v>
-      </c>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="9" t="s">
-        <v>881</v>
-      </c>
-      <c r="I133" s="9">
-        <v>1</v>
-      </c>
-      <c r="J133" s="4" t="s">
-        <v>882</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H133" s="9"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
       <c r="K133" s="4"/>
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
@@ -7841,17 +7869,17 @@
         <v>133</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>852</v>
+        <v>873</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>853</v>
+        <v>874</v>
       </c>
       <c r="F134" s="4">
         <v>2</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="9"/>
-      <c r="I134" s="9"/>
+      <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
       <c r="L134" s="4"/>
@@ -7863,20 +7891,22 @@
         <v>134</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="E135" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F135" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G135" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
+        <v>814</v>
+      </c>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="I135" s="9">
+        <v>1</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>880</v>
+      </c>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
       <c r="M135" s="4"/>
@@ -7887,19 +7917,17 @@
         <v>135</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>864</v>
-      </c>
-      <c r="G136" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
+        <v>853</v>
+      </c>
+      <c r="F136" s="4">
+        <v>2</v>
+      </c>
+      <c r="G136" s="4"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
       <c r="L136" s="4"/>
@@ -7917,17 +7945,13 @@
         <v>19</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="H137" s="4">
-        <v>1</v>
-      </c>
-      <c r="I137" s="4">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
       <c r="L137" s="4"/>
@@ -7945,7 +7969,7 @@
         <v>19</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>117</v>
+        <v>864</v>
       </c>
       <c r="G138" s="4" t="s">
         <v>2</v>
@@ -7963,17 +7987,23 @@
         <v>138</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>853</v>
-      </c>
-      <c r="F139" s="4">
+        <v>19</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H139" s="4">
         <v>1</v>
       </c>
-      <c r="G139" s="4"/>
-      <c r="H139" s="9"/>
-      <c r="I139" s="9"/>
+      <c r="I139" s="4">
+        <v>1</v>
+      </c>
       <c r="J139" s="4"/>
       <c r="K139" s="4"/>
       <c r="L139" s="4"/>
@@ -7985,26 +8015,20 @@
         <v>139</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>838</v>
+        <v>856</v>
       </c>
       <c r="E140" s="9" t="s">
-        <v>226</v>
+        <v>19</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>235</v>
+        <v>117</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H140" s="9" t="s">
-        <v>865</v>
-      </c>
-      <c r="I140" s="9" t="s">
-        <v>866</v>
-      </c>
-      <c r="J140" s="4" t="s">
-        <v>883</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H140" s="4"/>
+      <c r="I140" s="4"/>
+      <c r="J140" s="4"/>
       <c r="K140" s="4"/>
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
@@ -8015,38 +8039,48 @@
         <v>140</v>
       </c>
       <c r="D141" s="6" t="s">
-        <v>838</v>
+        <v>852</v>
       </c>
       <c r="E141" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G141" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H141" s="4"/>
-      <c r="I141" s="4"/>
+        <v>853</v>
+      </c>
+      <c r="F141" s="4">
+        <v>1</v>
+      </c>
+      <c r="G141" s="4"/>
+      <c r="H141" s="9"/>
+      <c r="I141" s="9"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
       <c r="L141" s="4"/>
       <c r="M141" s="4"/>
       <c r="N141" s="14"/>
     </row>
-    <row r="142" spans="3:14" ht="15">
+    <row r="142" spans="3:14">
       <c r="C142" s="4">
         <v>141</v>
       </c>
-      <c r="D142" s="5" t="s">
-        <v>855</v>
-      </c>
-      <c r="E142" s="9"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="9"/>
-      <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
+      <c r="D142" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="F142" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H142" s="9" t="s">
+        <v>865</v>
+      </c>
+      <c r="I142" s="9" t="s">
+        <v>866</v>
+      </c>
+      <c r="J142" s="4" t="s">
+        <v>881</v>
+      </c>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
@@ -8057,16 +8091,18 @@
         <v>142</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E143" s="9" t="s">
-        <v>811</v>
-      </c>
-      <c r="F143" s="4">
-        <v>2</v>
-      </c>
-      <c r="G143" s="4"/>
-      <c r="H143" s="9"/>
+        <v>226</v>
+      </c>
+      <c r="F143" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
       <c r="K143" s="4"/>
@@ -8074,24 +8110,18 @@
       <c r="M143" s="4"/>
       <c r="N143" s="14"/>
     </row>
-    <row r="144" spans="3:14">
+    <row r="144" spans="3:14" ht="15">
       <c r="C144" s="4">
         <v>143</v>
       </c>
-      <c r="D144" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="E144" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="D144" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="E144" s="9"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
       <c r="H144" s="9"/>
-      <c r="I144" s="9"/>
+      <c r="I144" s="4"/>
       <c r="J144" s="4"/>
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
@@ -8103,19 +8133,17 @@
         <v>144</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E145" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>2</v>
-      </c>
+        <v>811</v>
+      </c>
+      <c r="F145" s="4">
+        <v>2</v>
+      </c>
+      <c r="G145" s="4"/>
       <c r="H145" s="9"/>
-      <c r="I145" s="9"/>
+      <c r="I145" s="4"/>
       <c r="J145" s="4"/>
       <c r="K145" s="4"/>
       <c r="L145" s="4"/>
@@ -8127,45 +8155,43 @@
         <v>145</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>856</v>
+        <v>838</v>
       </c>
       <c r="E146" s="9" t="s">
-        <v>857</v>
+        <v>19</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>633</v>
+        <v>22</v>
       </c>
       <c r="G146" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H146" s="4" t="s">
-        <v>851</v>
-      </c>
-      <c r="I146" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="H146" s="9"/>
+      <c r="I146" s="9"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
       <c r="L146" s="4"/>
       <c r="M146" s="4"/>
       <c r="N146" s="14"/>
     </row>
-    <row r="147" spans="3:14" ht="14.25">
+    <row r="147" spans="3:14">
       <c r="C147" s="4">
         <v>146</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>856</v>
+        <v>838</v>
       </c>
       <c r="E147" s="9" t="s">
-        <v>857</v>
+        <v>19</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="G147" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H147" s="16"/>
-      <c r="I147" s="4"/>
+      <c r="H147" s="9"/>
+      <c r="I147" s="9"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
       <c r="L147" s="4"/>
@@ -8179,16 +8205,18 @@
       <c r="D148" s="6" t="s">
         <v>856</v>
       </c>
-      <c r="E148" s="4" t="s">
-        <v>640</v>
+      <c r="E148" s="9" t="s">
+        <v>857</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>257</v>
+        <v>633</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H148" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="H148" s="4" t="s">
+        <v>851</v>
+      </c>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
@@ -8196,7 +8224,7 @@
       <c r="M148" s="4"/>
       <c r="N148" s="14"/>
     </row>
-    <row r="149" spans="3:14">
+    <row r="149" spans="3:14" ht="14.25">
       <c r="C149" s="4">
         <v>148</v>
       </c>
@@ -8207,40 +8235,88 @@
         <v>857</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H149" s="9"/>
-      <c r="I149" s="9"/>
+      <c r="H149" s="16"/>
+      <c r="I149" s="4"/>
       <c r="J149" s="4"/>
       <c r="K149" s="4"/>
       <c r="L149" s="4"/>
       <c r="M149" s="4"/>
       <c r="N149" s="14"/>
     </row>
+    <row r="150" spans="3:14">
+      <c r="C150" s="4">
+        <v>149</v>
+      </c>
+      <c r="D150" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>640</v>
+      </c>
+      <c r="F150" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G150" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H150" s="9"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="14"/>
+    </row>
+    <row r="151" spans="3:14">
+      <c r="C151" s="4">
+        <v>150</v>
+      </c>
+      <c r="D151" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>857</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H151" s="9"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="4"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="4"/>
+      <c r="N151" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N149">
-    <cfRule type="cellIs" dxfId="1" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N151">
+    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F44:F45 F35:F36 F92 F71:F72 F109 F116:F117 F47:F60 F74:F90 F111:F114 F135:F138 F62:F63 F38:F42 F133 F99:F100 F65:F69 F2:F14 F94:F97 F102:F107 F119:F131 F140:F149 F17:F19 F21:F33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F44:F45 F35:F36 F92 F71:F72 F109 F116:F117 F47:F60 F74:F90 F111:F114 F137:F140 F62:F63 F38:F42 F135 F99:F100 F65:F69 F2:F14 F94:F97 F102:F107 F21:F33 F142:F151 F17:F19 F119:F133">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G147:G149 G2:G145">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G149:G151 G2:G147">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D144:D145 D127:D141 D75:D84 D86:D101 D63:D64 D39:D46 D66:D73 D56:D61 D48:D54 D8 D3:D4 D29:D34 D36:D37 D10:D15 D103:D125 D17:D27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D146:D147 D129:D143 D75:D84 D86:D101 D63:D64 D39:D46 D66:D73 D56:D61 D48:D54 D8 D3:D4 D29:D34 D36:D37 D10:D15 D17:D27 D103:D127">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E149">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E151">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/Keywordscripts/600.10.20.120_ManualMaitenanceAndScheduledMaintenance.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.20.120_ManualMaitenanceAndScheduledMaintenance.xlsx
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8213" uniqueCount="900">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8215" uniqueCount="902">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3955,10 +3955,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_Ip_Port$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$Trap_GXT_Trap$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3967,14 +3963,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_SingleAuto_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SNMP_SinAuto_0$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Script Info</t>
   </si>
   <si>
@@ -4024,6 +4012,25 @@
   <si>
     <t xml:space="preserve">;Repeat above steps,Verify the overlap between Manual maintenance and Scheduled maintenance. </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SNMP_device_0$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Trap_GXT_Port$</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_default</t>
   </si>
 </sst>
 </file>
@@ -4189,7 +4196,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4200,8 +4207,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4241,41 +4251,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4582,8 +4569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4600,10 +4587,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>815</v>
@@ -4644,10 +4631,10 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="2" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4668,10 +4655,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4702,10 +4689,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -4732,7 +4719,7 @@
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="2" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="B5" s="8">
         <v>41743</v>
@@ -4756,10 +4743,10 @@
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="2" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4804,7 +4791,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="4">
@@ -4824,10 +4811,10 @@
         <v>847</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>882</v>
+        <v>897</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>883</v>
+        <v>898</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>848</v>
@@ -4842,7 +4829,7 @@
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4">
@@ -5129,7 +5116,7 @@
         <v>56</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>883</v>
+        <v>898</v>
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -5223,6 +5210,12 @@
       <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14">
+      <c r="A23" s="17" t="s">
+        <v>900</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>901</v>
+      </c>
       <c r="C23" s="4">
         <v>22</v>
       </c>
@@ -5541,13 +5534,13 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="9" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="I36" s="9">
         <v>1</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
@@ -5647,7 +5640,7 @@
         <v>40</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="E41" s="9" t="s">
         <v>19</v>
@@ -5875,7 +5868,7 @@
         <v>56</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>883</v>
+        <v>898</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -6173,13 +6166,13 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="9" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="I63" s="9">
         <v>1</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
@@ -6213,7 +6206,7 @@
         <v>64</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="4"/>
@@ -6371,7 +6364,7 @@
         <v>866</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="K71" s="4"/>
       <c r="L71" s="4"/>
@@ -6429,7 +6422,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -6507,7 +6500,7 @@
         <v>56</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>883</v>
+        <v>898</v>
       </c>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
@@ -6865,13 +6858,13 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
       <c r="H92" s="9" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="I92" s="9">
         <v>1</v>
       </c>
       <c r="J92" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
@@ -7045,7 +7038,7 @@
         <v>866</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
@@ -7273,13 +7266,13 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
       <c r="H109" s="9" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="I109" s="9">
         <v>1</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
@@ -7571,7 +7564,7 @@
         <v>56</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>883</v>
+        <v>898</v>
       </c>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
@@ -7899,13 +7892,13 @@
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
       <c r="H135" s="9" t="s">
-        <v>879</v>
+        <v>899</v>
       </c>
       <c r="I135" s="9">
         <v>1</v>
       </c>
       <c r="J135" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="K135" s="4"/>
       <c r="L135" s="4"/>
@@ -8079,7 +8072,7 @@
         <v>866</v>
       </c>
       <c r="J142" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
@@ -8299,10 +8292,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N151">
-    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
